--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rln3-Rxfp3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rln3-Rxfp3.xlsx
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.022828</v>
+        <v>0.01118366666666667</v>
       </c>
       <c r="N2">
-        <v>0.068484</v>
+        <v>0.033551</v>
       </c>
       <c r="O2">
-        <v>0.07816148625976677</v>
+        <v>0.1526349789820392</v>
       </c>
       <c r="P2">
-        <v>0.07816148625976678</v>
+        <v>0.1526349789820392</v>
       </c>
       <c r="Q2">
-        <v>0.003286958064</v>
+        <v>0.001610313796</v>
       </c>
       <c r="R2">
-        <v>0.029582622576</v>
+        <v>0.014492824164</v>
       </c>
       <c r="S2">
-        <v>0.07816148625976677</v>
+        <v>0.1526349789820392</v>
       </c>
       <c r="T2">
-        <v>0.07816148625976678</v>
+        <v>0.1526349789820392</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>0.072257</v>
       </c>
       <c r="O3">
-        <v>0.08246764956299234</v>
+        <v>0.3287218168252871</v>
       </c>
       <c r="P3">
-        <v>0.08246764956299234</v>
+        <v>0.3287218168252871</v>
       </c>
       <c r="Q3">
         <v>0.003468046972</v>
@@ -632,10 +632,10 @@
         <v>0.031212422748</v>
       </c>
       <c r="S3">
-        <v>0.08246764956299234</v>
+        <v>0.3287218168252871</v>
       </c>
       <c r="T3">
-        <v>0.08246764956299234</v>
+        <v>0.3287218168252871</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2451483333333333</v>
+        <v>0.03800133333333333</v>
       </c>
       <c r="N4">
-        <v>0.7354449999999999</v>
+        <v>0.114004</v>
       </c>
       <c r="O4">
-        <v>0.8393708641772408</v>
+        <v>0.5186432041926737</v>
       </c>
       <c r="P4">
-        <v>0.8393708641772409</v>
+        <v>0.5186432041926737</v>
       </c>
       <c r="Q4">
-        <v>0.03529841822</v>
+        <v>0.005471735984</v>
       </c>
       <c r="R4">
-        <v>0.31768576398</v>
+        <v>0.049245623856</v>
       </c>
       <c r="S4">
-        <v>0.8393708641772408</v>
+        <v>0.5186432041926737</v>
       </c>
       <c r="T4">
-        <v>0.8393708641772409</v>
+        <v>0.5186432041926737</v>
       </c>
     </row>
   </sheetData>
